--- a/GRUPO SOLAR/SOLAR/2025-06/SOLAR 06 DE 2025 EXCEL.xlsx
+++ b/GRUPO SOLAR/SOLAR/2025-06/SOLAR 06 DE 2025 EXCEL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.missiba\Desktop\projetoalocama\GRUPO SOLAR\SOLAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.missiba\Desktop\projetoalocama\GRUPO SOLAR\SOLAR\2025-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F751EAAA-DACC-4458-8463-BB994E9E9482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7C72ED-8173-4B22-A3CD-B0E976F030C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12594,11 +12594,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y2745"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A2712" workbookViewId="0">
+      <selection activeCell="Y2722" sqref="Y2722"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="25" max="25" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
